--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613916.701900169</v>
+        <v>1613176.239079446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307679</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>188.035881582826</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642672</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874606</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247065</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>39.26606262901563</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715467</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560306</v>
+        <v>73.44736618700969</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192608</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268827</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F12" t="n">
-        <v>13.3526113606712</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115014</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H12" t="n">
-        <v>84.01603958400358</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T12" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475017</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X12" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459169</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922462</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591516</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549968</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7173616138565</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021857</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028123</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304849</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892989</v>
+        <v>16.96724755892996</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437358</v>
+        <v>35.45957938437365</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529486</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494628</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911153</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038783</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632448</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938212</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
@@ -1625,7 +1625,7 @@
         <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>28.79109562787528</v>
+        <v>59.42064602642684</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874615</v>
+        <v>65.87283976874618</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>243.0174647761709</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715475</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560318</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192616</v>
+        <v>15.72846453192619</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268838</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067132</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115128</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622709</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027162</v>
+        <v>99.8217978916778</v>
       </c>
       <c r="U15" t="n">
-        <v>94.2071238447502</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0839861167127</v>
       </c>
       <c r="W15" t="n">
-        <v>235.9279929844977</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922474</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591527</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.8988719854998</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385661</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021868</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028134</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304861</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755893</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437367</v>
+        <v>35.4595793843737</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529497</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494639</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200257</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632459</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938223</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945655</v>
       </c>
       <c r="E17" t="n">
         <v>144.5508808461438</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.8815244684444</v>
+        <v>175.5525147062468</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>113.1122544509813</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6009042264950357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461448</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149215</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.424367602990849</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>150.8081752375608</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.4328844084325</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662028</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771002</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047302</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149216</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X23" t="n">
         <v>132.3516114523511</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>76.37774273439388</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>179.2504583166795</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>14.31549393480162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>180.4328844084325</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662028</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771002</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047302</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673131</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>159.4706678930143</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>146.0132724900687</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
-        <v>82.75652687097326</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2792,10 +2792,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D29" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
         <v>231.8863097938098</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068742</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300676</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,7 +2855,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
         <v>236.1938783776016</v>
@@ -2877,10 +2877,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.6538937004877</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>133.0443398814445</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901081</v>
+        <v>221.4602038344229</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863428</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955555</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068743</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T32" t="n">
         <v>70.85595483673134</v>
@@ -3108,7 +3108,7 @@
         <v>16.48912337141536</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>44.2501333043184</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0.5113268420282062</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.6538937004877</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453223</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>75.87966459901081</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885238</v>
       </c>
     </row>
     <row r="34">
@@ -3272,7 +3272,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>107.7846426579647</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
         <v>225.9237248774628</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>80.15985807292446</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>69.34975322314422</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>105.7773791882301</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>97.59912977709408</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242685</v>
+        <v>30.40550832242684</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>135.132673120902</v>
+        <v>6.731933095215195</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424197</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3955,13 +3955,13 @@
         <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864471</v>
+        <v>151.3382766579437</v>
       </c>
       <c r="W43" t="n">
         <v>65.62298322140771</v>
       </c>
       <c r="X43" t="n">
-        <v>124.9102887231527</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>85.70508664483229</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
-        <v>45.95285092308536</v>
+        <v>30.79496804573628</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4189,7 +4189,7 @@
         <v>6.084173352475625</v>
       </c>
       <c r="U46" t="n">
-        <v>185.507389486854</v>
+        <v>185.5073894868542</v>
       </c>
       <c r="V46" t="n">
         <v>31.23762820864468</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>771.001631907222</v>
+        <v>794.3376724599063</v>
       </c>
       <c r="C11" t="n">
-        <v>581.0663979851755</v>
+        <v>794.3376724599063</v>
       </c>
       <c r="D11" t="n">
-        <v>581.0663979851755</v>
+        <v>569.1190456033706</v>
       </c>
       <c r="E11" t="n">
-        <v>581.0663979851755</v>
+        <v>316.3778647553412</v>
       </c>
       <c r="F11" t="n">
-        <v>581.0663979851755</v>
+        <v>316.3778647553412</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037685</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608209</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020939</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326554</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550281</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241021</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5066,25 +5066,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T11" t="n">
-        <v>1365.072875059107</v>
+        <v>1431.611097047739</v>
       </c>
       <c r="U11" t="n">
-        <v>1244.275983741028</v>
+        <v>1310.814205729661</v>
       </c>
       <c r="V11" t="n">
-        <v>1244.275983741028</v>
+        <v>1271.151516205403</v>
       </c>
       <c r="W11" t="n">
-        <v>1024.554400221129</v>
+        <v>1051.429932685503</v>
       </c>
       <c r="X11" t="n">
-        <v>1024.554400221129</v>
+        <v>1051.429932685503</v>
       </c>
       <c r="Y11" t="n">
-        <v>1024.554400221129</v>
+        <v>794.3376724599063</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.648098156887</v>
+        <v>165.6010264066718</v>
       </c>
       <c r="C12" t="n">
-        <v>257.2421406259748</v>
+        <v>91.41176763191459</v>
       </c>
       <c r="D12" t="n">
-        <v>241.3548027149384</v>
+        <v>75.52442972087809</v>
       </c>
       <c r="E12" t="n">
-        <v>215.1644194596977</v>
+        <v>49.33404646563736</v>
       </c>
       <c r="F12" t="n">
-        <v>201.6769332367975</v>
+        <v>35.84656024273709</v>
       </c>
       <c r="G12" t="n">
-        <v>196.2642800679944</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H12" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I12" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234743</v>
+        <v>223.1030253215075</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634074</v>
+        <v>599.7226253614406</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211011</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.695353696699</v>
@@ -5145,25 +5145,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1268.976064197887</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T12" t="n">
-        <v>1067.882194811035</v>
+        <v>1200.929266561249</v>
       </c>
       <c r="U12" t="n">
-        <v>839.6764121065268</v>
+        <v>1105.770555606956</v>
       </c>
       <c r="V12" t="n">
-        <v>737.5713756249988</v>
+        <v>870.6184473752135</v>
       </c>
       <c r="W12" t="n">
-        <v>483.3340188967972</v>
+        <v>749.4281623972266</v>
       </c>
       <c r="X12" t="n">
-        <v>408.5295904414792</v>
+        <v>541.5766621916938</v>
       </c>
       <c r="Y12" t="n">
-        <v>333.8163634267402</v>
+        <v>333.8163634267399</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858022</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081102</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459893</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E13" t="n">
-        <v>126.626940813811</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661154</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946772</v>
+        <v>76.37056042946783</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184297</v>
+        <v>47.57254097184303</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220483</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701335</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383617</v>
+        <v>409.2216288383615</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835532</v>
+        <v>613.7275326835531</v>
       </c>
       <c r="N13" t="n">
-        <v>821.9059667580937</v>
+        <v>821.9059667580935</v>
       </c>
       <c r="O13" t="n">
-        <v>926.5724189269722</v>
+        <v>993.2198425848499</v>
       </c>
       <c r="P13" t="n">
-        <v>1081.219273571222</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.130093985698</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877724</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493627</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936907</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069449</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591424</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658271</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1080.807472076082</v>
+        <v>581.066397985176</v>
       </c>
       <c r="C14" t="n">
-        <v>1080.807472076082</v>
+        <v>581.066397985176</v>
       </c>
       <c r="D14" t="n">
-        <v>1080.807472076082</v>
+        <v>581.066397985176</v>
       </c>
       <c r="E14" t="n">
-        <v>828.0662912280525</v>
+        <v>581.066397985176</v>
       </c>
       <c r="F14" t="n">
-        <v>550.1274581886596</v>
+        <v>581.066397985176</v>
       </c>
       <c r="G14" t="n">
-        <v>264.1835005072523</v>
+        <v>295.1224403037688</v>
       </c>
       <c r="H14" t="n">
-        <v>59.51582184956558</v>
+        <v>90.45476164608232</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
         <v>789.5552979241022</v>
@@ -5297,7 +5297,7 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R14" t="n">
         <v>1521.695353696699</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1334.360240389989</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.360240389989</v>
+        <v>1046.260168147672</v>
       </c>
       <c r="W14" t="n">
-        <v>1334.360240389989</v>
+        <v>826.5385846277728</v>
       </c>
       <c r="X14" t="n">
-        <v>1334.360240389989</v>
+        <v>826.5385846277728</v>
       </c>
       <c r="Y14" t="n">
-        <v>1334.360240389989</v>
+        <v>581.066397985176</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.0060121636859</v>
+        <v>132.8177251628271</v>
       </c>
       <c r="C15" t="n">
-        <v>490.5529828825589</v>
+        <v>91.41176763191481</v>
       </c>
       <c r="D15" t="n">
-        <v>474.6656449715224</v>
+        <v>75.52442972087826</v>
       </c>
       <c r="E15" t="n">
-        <v>315.4281899660669</v>
+        <v>49.33404646563747</v>
       </c>
       <c r="F15" t="n">
-        <v>168.8936319929519</v>
+        <v>35.84656024273715</v>
       </c>
       <c r="G15" t="n">
         <v>30.43390707393399</v>
@@ -5355,52 +5355,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>168.8296018649921</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4846184843216</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M15" t="n">
-        <v>833.1042185242547</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.723818564188</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.695353696699</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751015</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114377</v>
+        <v>1168.145965317405</v>
       </c>
       <c r="U15" t="n">
-        <v>1323.155145160084</v>
+        <v>939.9401826128969</v>
       </c>
       <c r="V15" t="n">
-        <v>1088.003036928342</v>
+        <v>837.8351461313689</v>
       </c>
       <c r="W15" t="n">
-        <v>849.6919329035964</v>
+        <v>716.644861153382</v>
       </c>
       <c r="X15" t="n">
-        <v>774.8875044482783</v>
+        <v>508.7933609478491</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.1742774335391</v>
+        <v>301.0330621828952</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.451641485803</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081108</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459898</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138114</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661158</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946794</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184305</v>
+        <v>47.57254097184308</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220475</v>
+        <v>84.15679020220472</v>
       </c>
       <c r="K16" t="n">
-        <v>136.8317512106611</v>
+        <v>218.3899330701333</v>
       </c>
       <c r="L16" t="n">
-        <v>327.6634469788891</v>
+        <v>409.2216288383614</v>
       </c>
       <c r="M16" t="n">
-        <v>532.1693508240807</v>
+        <v>613.7275326835529</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986211</v>
+        <v>806.9952085564984</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269733</v>
+        <v>993.2198425848507</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q16" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856995</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877739</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493641</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.111119393692</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069461</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591434</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.053034565828</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693738</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
@@ -5513,13 +5513,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
         <v>789.5552979241022</v>
@@ -5534,16 +5534,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.43390707393399</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C18" t="n">
         <v>30.43390707393399</v>
@@ -5595,49 +5595,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K18" t="n">
-        <v>168.8296018649921</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4846184843216</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M18" t="n">
-        <v>833.1042185242547</v>
+        <v>862.9717110634076</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.723818564188</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="O18" t="n">
-        <v>1521.695353696699</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="P18" t="n">
-        <v>1521.695353696699</v>
+        <v>1472.972904266155</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197887</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T18" t="n">
         <v>1067.882194811035</v>
       </c>
       <c r="U18" t="n">
-        <v>839.6764121065268</v>
+        <v>839.676412106527</v>
       </c>
       <c r="V18" t="n">
-        <v>604.524303874784</v>
+        <v>604.5243038747842</v>
       </c>
       <c r="W18" t="n">
-        <v>350.2869471465823</v>
+        <v>590.0642089911462</v>
       </c>
       <c r="X18" t="n">
-        <v>142.4354469410495</v>
+        <v>382.2127087856134</v>
       </c>
       <c r="Y18" t="n">
-        <v>30.43390707393399</v>
+        <v>204.886936355061</v>
       </c>
     </row>
     <row r="19">
@@ -5674,49 +5674,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681116</v>
+        <v>258.6573258474539</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240506</v>
+        <v>209.235844103393</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627273</v>
+        <v>194.3286177420698</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703303</v>
+        <v>144.6887095496727</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0823719041737</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852423</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230554</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5768,31 +5768,31 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
         <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>464.3625996273182</v>
+        <v>462.1723698442665</v>
       </c>
       <c r="C21" t="n">
-        <v>464.3625996273182</v>
+        <v>287.7193405631395</v>
       </c>
       <c r="D21" t="n">
-        <v>315.4281899660669</v>
+        <v>287.7193405631395</v>
       </c>
       <c r="E21" t="n">
-        <v>315.4281899660669</v>
+        <v>287.7193405631395</v>
       </c>
       <c r="F21" t="n">
-        <v>168.8936319929519</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G21" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H21" t="n">
         <v>30.43390707393399</v>
@@ -5829,52 +5829,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>223.1030253215076</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M21" t="n">
-        <v>599.7226253614408</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N21" t="n">
-        <v>976.342225401374</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O21" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P21" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1517.22629551186</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.6953536967</v>
+        <v>1348.844523815962</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.6953536967</v>
+        <v>1147.750654429109</v>
       </c>
       <c r="U21" t="n">
-        <v>1369.363863557749</v>
+        <v>919.5448717246011</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.211755326007</v>
+        <v>684.3927634928584</v>
       </c>
       <c r="W21" t="n">
-        <v>879.9743985978049</v>
+        <v>669.9326686092204</v>
       </c>
       <c r="X21" t="n">
-        <v>672.1228983922721</v>
+        <v>669.9326686092204</v>
       </c>
       <c r="Y21" t="n">
-        <v>464.3625996273182</v>
+        <v>462.1723698442665</v>
       </c>
     </row>
     <row r="22">
@@ -5926,25 +5926,25 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765425</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V22" t="n">
-        <v>80.073815266331</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W22" t="n">
         <v>30.43390707393399</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810893</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230544</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693738</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F23" t="n">
         <v>307.5851632243299</v>
@@ -5984,19 +5984,19 @@
         <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393447</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108021001</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326561</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,7 +6005,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6020,10 +6020,10 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
         <v>1303.351633548412</v>
@@ -6032,7 +6032,7 @@
         <v>1169.663137131896</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.1067795055178</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="C24" t="n">
-        <v>436.6537502243908</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="D24" t="n">
-        <v>287.7193405631396</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E24" t="n">
-        <v>287.7193405631396</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F24" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
         <v>30.43390707393399</v>
@@ -6069,49 +6069,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43390707393399</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0889236932636</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M24" t="n">
-        <v>694.7085237331967</v>
+        <v>862.9717110634075</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.32812377313</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533885</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1444.546118611453</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T24" t="n">
-        <v>1444.546118611453</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1444.546118611453</v>
+        <v>886.8211258042877</v>
       </c>
       <c r="V24" t="n">
-        <v>1209.394010379711</v>
+        <v>651.669017572545</v>
       </c>
       <c r="W24" t="n">
-        <v>1194.933915496073</v>
+        <v>397.4316608443434</v>
       </c>
       <c r="X24" t="n">
-        <v>987.0824152905398</v>
+        <v>397.4316608443434</v>
       </c>
       <c r="Y24" t="n">
-        <v>779.3221165255859</v>
+        <v>189.6713620793895</v>
       </c>
     </row>
     <row r="25">
@@ -6163,25 +6163,25 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>94.98104162765425</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V25" t="n">
-        <v>80.073815266331</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W25" t="n">
         <v>30.43390707393399</v>
@@ -6209,61 +6209,61 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450501</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491202</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471604</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
         <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606064</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831069</v>
       </c>
       <c r="Q26" t="n">
         <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953606</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>822.9452642790299</v>
+        <v>237.4569148787245</v>
       </c>
       <c r="C27" t="n">
-        <v>648.4922349979029</v>
+        <v>214.5635424445187</v>
       </c>
       <c r="D27" t="n">
-        <v>499.5578253366515</v>
+        <v>214.5635424445187</v>
       </c>
       <c r="E27" t="n">
-        <v>340.320370331196</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="F27" t="n">
-        <v>193.785812358081</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235049</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6312,43 +6312,43 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M27" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N27" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P27" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q27" t="n">
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1821.248334240194</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U27" t="n">
-        <v>1744.602208382608</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1661.009756997786</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>1406.772400269585</v>
+        <v>814.1501965694276</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.920900064052</v>
+        <v>606.2986963638948</v>
       </c>
       <c r="Y27" t="n">
-        <v>991.1606012990978</v>
+        <v>398.5383975989409</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.73818863237895</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C28" t="n">
-        <v>75.36166255139327</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D28" t="n">
         <v>75.36166255139327</v>
@@ -6376,58 +6376,58 @@
         <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906317</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K28" t="n">
-        <v>74.87134857180391</v>
+        <v>131.0268630661591</v>
       </c>
       <c r="L28" t="n">
-        <v>283.847228993314</v>
+        <v>191.4591238120017</v>
       </c>
       <c r="M28" t="n">
-        <v>506.4973174917876</v>
+        <v>265.5655926348078</v>
       </c>
       <c r="N28" t="n">
-        <v>584.2763165439425</v>
+        <v>491.8882113626303</v>
       </c>
       <c r="O28" t="n">
-        <v>788.6451352255768</v>
+        <v>696.2570300442646</v>
       </c>
       <c r="P28" t="n">
-        <v>812.8925548474408</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>812.8925548474408</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>795.5873829902345</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8285454553298</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>647.1112442541107</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>509.4721575124075</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>406.3473261534418</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>268.4898129634024</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>192.0599189123063</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.8269966156974</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
@@ -6446,40 +6446,40 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754844</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450501</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210065</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.91668804912</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471602</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.936491467169</v>
@@ -6488,22 +6488,22 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824715</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.485539360012</v>
+        <v>386.3913245399757</v>
       </c>
       <c r="C30" t="n">
-        <v>510.032510078885</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D30" t="n">
-        <v>361.0981004176337</v>
+        <v>63.00388559759745</v>
       </c>
       <c r="E30" t="n">
-        <v>201.8606454121782</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F30" t="n">
         <v>55.32608743906317</v>
@@ -6549,43 +6549,43 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M30" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N30" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P30" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q30" t="n">
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1834.348266168098</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1757.702140310511</v>
+        <v>1308.048268643553</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.550032078768</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.312675350567</v>
+        <v>818.6588036836092</v>
       </c>
       <c r="X30" t="n">
-        <v>1060.461175145034</v>
+        <v>610.8073034780764</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.70087638008</v>
+        <v>554.6066615600437</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209086</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C31" t="n">
-        <v>83.51244133992289</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992289</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992289</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905572</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K31" t="n">
-        <v>280.9170923117679</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L31" t="n">
-        <v>489.8929727332779</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M31" t="n">
-        <v>663.1917159559848</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N31" t="n">
-        <v>740.9707150081398</v>
+        <v>582.8620151563052</v>
       </c>
       <c r="O31" t="n">
-        <v>796.7959140141066</v>
+        <v>787.2308338379396</v>
       </c>
       <c r="P31" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>803.7381617787643</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438597</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426405</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>517.6229363009372</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>414.4981049419715</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>276.6405917519321</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>200.210697700836</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9777754042271</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F32" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754845</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450502</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906317</v>
@@ -6701,16 +6701,16 @@
         <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O32" t="n">
         <v>2233.040522606063</v>
@@ -6731,19 +6731,19 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287608</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
         <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8992057694708</v>
+        <v>533.4423742727153</v>
       </c>
       <c r="C33" t="n">
-        <v>746.4461764883438</v>
+        <v>510.5490018385094</v>
       </c>
       <c r="D33" t="n">
-        <v>597.5117668270925</v>
+        <v>361.6145921772581</v>
       </c>
       <c r="E33" t="n">
-        <v>438.274311821637</v>
+        <v>202.3771371718026</v>
       </c>
       <c r="F33" t="n">
-        <v>291.739753848522</v>
+        <v>55.84257919868762</v>
       </c>
       <c r="G33" t="n">
-        <v>247.0426495007256</v>
+        <v>55.84257919868762</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
         <v>55.32608743906317</v>
@@ -6786,43 +6786,43 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N33" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P33" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q33" t="n">
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.202275730635</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U33" t="n">
-        <v>1842.556149873049</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V33" t="n">
-        <v>1607.404041641306</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W33" t="n">
-        <v>1353.166684913104</v>
+        <v>814.1501965694276</v>
       </c>
       <c r="X33" t="n">
-        <v>1145.315184707571</v>
+        <v>606.2986963638948</v>
       </c>
       <c r="Y33" t="n">
-        <v>937.5548859426176</v>
+        <v>550.0980544458621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209086</v>
+        <v>91.32388724474187</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992289</v>
+        <v>73.94736116375616</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992289</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992289</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F34" t="n">
         <v>83.51244133992289</v>
@@ -6865,43 +6865,43 @@
         <v>268.1356757061164</v>
       </c>
       <c r="M34" t="n">
-        <v>342.2421445289225</v>
+        <v>423.1868200863598</v>
       </c>
       <c r="N34" t="n">
-        <v>420.0211435810774</v>
+        <v>500.9658191385148</v>
       </c>
       <c r="O34" t="n">
-        <v>566.3560983206484</v>
+        <v>705.3346378201492</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181798</v>
+        <v>729.5820574420131</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787643</v>
+        <v>794.1730816025976</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438597</v>
+        <v>723.4142440676929</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426405</v>
+        <v>645.6969428664738</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009372</v>
+        <v>508.0578561247705</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419715</v>
+        <v>404.9330247658048</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519321</v>
+        <v>267.0755115757654</v>
       </c>
       <c r="X34" t="n">
-        <v>200.210697700836</v>
+        <v>190.6456175246693</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042271</v>
+        <v>121.4126952280604</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.478488781089</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852409</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D35" t="n">
-        <v>624.804796923054</v>
+        <v>624.8047969230551</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693735</v>
+        <v>478.7938061693744</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
@@ -6935,7 +6935,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020955</v>
       </c>
       <c r="K35" t="n">
         <v>226.9372683326556</v>
@@ -6944,7 +6944,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6956,31 +6956,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.399593619506</v>
+        <v>353.8213460163123</v>
       </c>
       <c r="C36" t="n">
-        <v>111.399593619506</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
@@ -7017,16 +7017,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43390707393399</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L36" t="n">
-        <v>119.7913802412348</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M36" t="n">
-        <v>496.410980281168</v>
+        <v>862.9717110634076</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211011</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
         <v>1185.002115453613</v>
@@ -7035,31 +7035,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1412.821977274513</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U36" t="n">
-        <v>1184.616194570005</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V36" t="n">
-        <v>949.4640863382624</v>
+        <v>857.2435933735965</v>
       </c>
       <c r="W36" t="n">
-        <v>695.2267296100608</v>
+        <v>603.0062366453949</v>
       </c>
       <c r="X36" t="n">
-        <v>487.3752294045279</v>
+        <v>603.0062366453949</v>
       </c>
       <c r="Y36" t="n">
-        <v>279.614930639574</v>
+        <v>522.0366830363803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H37" t="n">
         <v>30.43390707393399</v>
@@ -7096,49 +7096,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243299</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372716</v>
@@ -7172,16 +7172,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7193,16 +7193,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
         <v>1507.62865247297</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492.2810709353301</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="C39" t="n">
-        <v>317.8280416542032</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="D39" t="n">
-        <v>168.8936319929519</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E39" t="n">
-        <v>168.8936319929519</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G39" t="n">
         <v>30.43390707393399</v>
@@ -7251,52 +7251,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393399</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K39" t="n">
-        <v>198.6970944041448</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3521110234743</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="M39" t="n">
-        <v>862.9717110634074</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N39" t="n">
-        <v>976.3422254013738</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1268.976064197887</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T39" t="n">
-        <v>1162.130226634019</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U39" t="n">
-        <v>1162.130226634019</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V39" t="n">
-        <v>1162.130226634019</v>
+        <v>857.2435933735965</v>
       </c>
       <c r="W39" t="n">
-        <v>907.892869905817</v>
+        <v>603.0062366453949</v>
       </c>
       <c r="X39" t="n">
-        <v>700.0413697002841</v>
+        <v>504.4212570725726</v>
       </c>
       <c r="Y39" t="n">
-        <v>492.2810709353301</v>
+        <v>504.4212570725726</v>
       </c>
     </row>
     <row r="40">
@@ -7333,40 +7333,40 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M40" t="n">
-        <v>168.8063444881258</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402807</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462476</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q40" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R40" t="n">
-        <v>326.6579621681116</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765429</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633101</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
         <v>30.43390707393399</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.430644582903</v>
+        <v>976.4306445829028</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416664</v>
+        <v>830.5994560416661</v>
       </c>
       <c r="D41" t="n">
-        <v>695.465085834091</v>
+        <v>695.4650858340908</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350221</v>
+        <v>532.808161635022</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445896</v>
+        <v>344.9535852445895</v>
       </c>
       <c r="G41" t="n">
         <v>149.0938842121431</v>
@@ -7406,34 +7406,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890034</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>139.9876132094134</v>
+        <v>64.82915620969244</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1722804618595</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842321</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M41" t="n">
-        <v>868.790310053306</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250563</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316133</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1580.271176436057</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1624.007834396491</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>663.6699141243657</v>
+        <v>763.9461048982229</v>
       </c>
       <c r="C42" t="n">
-        <v>489.2168848432387</v>
+        <v>589.4930756170959</v>
       </c>
       <c r="D42" t="n">
-        <v>340.2824751819874</v>
+        <v>589.4930756170959</v>
       </c>
       <c r="E42" t="n">
-        <v>181.0450201765319</v>
+        <v>430.2556206116403</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341689</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H42" t="n">
         <v>34.51046220341689</v>
@@ -7488,52 +7488,52 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="K42" t="n">
-        <v>91.2296536641341</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>378.8846702834637</v>
+        <v>514.7928929162446</v>
       </c>
       <c r="M42" t="n">
-        <v>766.5437285079263</v>
+        <v>902.4519511407073</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875519</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="T42" t="n">
-        <v>1589.025460553772</v>
+        <v>1634.385659948522</v>
       </c>
       <c r="U42" t="n">
-        <v>1360.819677849264</v>
+        <v>1406.179877244014</v>
       </c>
       <c r="V42" t="n">
-        <v>1125.667569617521</v>
+        <v>1394.159097411446</v>
       </c>
       <c r="W42" t="n">
-        <v>871.4302128893196</v>
+        <v>1139.921740683245</v>
       </c>
       <c r="X42" t="n">
-        <v>871.4302128893196</v>
+        <v>1139.921740683245</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.6699141243657</v>
+        <v>932.1614419182908</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7573,7 @@
         <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
@@ -7582,31 +7582,31 @@
         <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486293</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591797</v>
+        <v>258.5214724591798</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524679</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146823</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
         <v>34.51046220341689</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829037</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416673</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.465085834092</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350228</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445903</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
@@ -7643,34 +7643,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890036</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>139.9876132094134</v>
+        <v>64.82915620969244</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1722804618595</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842321</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M44" t="n">
-        <v>868.790310053306</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250563</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316133</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1482.03525086575</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7679,7 +7679,7 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7688,10 +7688,10 @@
         <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>993.8462011050461</v>
+        <v>416.5502244285229</v>
       </c>
       <c r="C45" t="n">
-        <v>819.3931718239191</v>
+        <v>416.5502244285229</v>
       </c>
       <c r="D45" t="n">
-        <v>670.4587621626679</v>
+        <v>267.6158147672716</v>
       </c>
       <c r="E45" t="n">
-        <v>511.2213071572123</v>
+        <v>181.0450201765319</v>
       </c>
       <c r="F45" t="n">
-        <v>364.6867491840973</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G45" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="K45" t="n">
-        <v>227.137876296915</v>
+        <v>58.87468896670419</v>
       </c>
       <c r="L45" t="n">
-        <v>514.7928929162446</v>
+        <v>275.5730252031908</v>
       </c>
       <c r="M45" t="n">
-        <v>902.4519511407073</v>
+        <v>663.2320834276535</v>
       </c>
       <c r="N45" t="n">
-        <v>1316.0782045083</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1628.049739640811</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
@@ -7752,25 +7752,25 @@
         <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1641.185592367931</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1641.185592367931</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1636.111138062598</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1624.09035823003</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W45" t="n">
-        <v>1577.673337095601</v>
+        <v>1000.377360419078</v>
       </c>
       <c r="X45" t="n">
-        <v>1369.821836890068</v>
+        <v>792.5258602135449</v>
       </c>
       <c r="Y45" t="n">
-        <v>1162.061538125114</v>
+        <v>584.7655614485909</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7810,7 @@
         <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
@@ -7819,22 +7819,22 @@
         <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486293</v>
       </c>
       <c r="U46" t="n">
         <v>137.2076861467565</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>80.32184786380853</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
-        <v>71.6985520103224</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.296052629596</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868387</v>
+        <v>74.13025746266388</v>
       </c>
       <c r="N15" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>379.4124632104731</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9243,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
-        <v>234.296052629596</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661683</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7220906850686</v>
+        <v>154.9366860694571</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599046</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>274.8949934127967</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
-        <v>441.961916436827</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>379.4124632104731</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N24" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>297.916967386067</v>
+        <v>78.73955651661683</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>263.3221669735452</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>170.539796362016</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>71.69855201032239</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>145.9294662980896</v>
       </c>
       <c r="M39" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>176.0537490611029</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>127.1842040501737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303679</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.166930775335</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>181.1817356775321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>45.52040915546885</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>275.1594447089988</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374222</v>
+        <v>156.7695948084067</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
         <v>233.556290738295</v>
@@ -23501,10 +23501,10 @@
         <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.62955039855154</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247073</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>11.50387284717016</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786544.2347283884</v>
+        <v>786544.2347283883</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895695.6703585443</v>
+        <v>895695.6703585444</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="D2" t="n">
         <v>675902.9794415567</v>
       </c>
       <c r="E2" t="n">
-        <v>580008.1797111377</v>
+        <v>580008.1797111379</v>
       </c>
       <c r="F2" t="n">
-        <v>580008.1797111382</v>
+        <v>580008.1797111379</v>
       </c>
       <c r="G2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="H2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="I2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="J2" t="n">
+        <v>677359.4601380328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>677359.4601380326</v>
+      </c>
+      <c r="L2" t="n">
+        <v>677359.4601380323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="N2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="H2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>677359.4601380331</v>
-      </c>
-      <c r="J2" t="n">
-        <v>677359.4601380329</v>
-      </c>
-      <c r="K2" t="n">
-        <v>677359.4601380327</v>
-      </c>
-      <c r="L2" t="n">
-        <v>677359.4601380322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>677359.4601380329</v>
-      </c>
-      <c r="N2" t="n">
-        <v>677359.4601380333</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="P2" t="n">
-        <v>677359.4601380335</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189903</v>
+        <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.31055472432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.1967351045</v>
+        <v>34584.19673510449</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>302289.1079395698</v>
+        <v>302289.1079395697</v>
       </c>
       <c r="F4" t="n">
         <v>302289.1079395697</v>
       </c>
       <c r="G4" t="n">
-        <v>369405.3002414156</v>
+        <v>369405.3002414155</v>
       </c>
       <c r="H4" t="n">
         <v>369405.3002414156</v>
@@ -26454,10 +26454,10 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823386</v>
+        <v>368260.9042823385</v>
       </c>
       <c r="P4" t="n">
-        <v>368260.9042823386</v>
+        <v>368260.9042823385</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>36923.20336678312</v>
       </c>
       <c r="G5" t="n">
+        <v>45806.17671431453</v>
+      </c>
+      <c r="H5" t="n">
         <v>45806.17671431452</v>
       </c>
-      <c r="H5" t="n">
-        <v>45806.17671431453</v>
-      </c>
       <c r="I5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
+        <v>57382.03161561137</v>
+      </c>
+      <c r="K5" t="n">
         <v>57382.03161561136</v>
       </c>
-      <c r="K5" t="n">
-        <v>57382.03161561135</v>
-      </c>
       <c r="L5" t="n">
-        <v>57382.03161561135</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431452</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211376.8699988807</v>
+        <v>211372.4564210128</v>
       </c>
       <c r="C6" t="n">
-        <v>211376.8699988807</v>
+        <v>211372.4564210128</v>
       </c>
       <c r="D6" t="n">
-        <v>211376.8699988809</v>
+        <v>211372.4564210128</v>
       </c>
       <c r="E6" t="n">
-        <v>-78410.27651420559</v>
+        <v>-78705.28039428669</v>
       </c>
       <c r="F6" t="n">
-        <v>240795.8684047854</v>
+        <v>240500.8645247035</v>
       </c>
       <c r="G6" t="n">
-        <v>177617.6726275789</v>
+        <v>177617.6726275788</v>
       </c>
       <c r="H6" t="n">
-        <v>262147.9831823033</v>
+        <v>262147.9831823031</v>
       </c>
       <c r="I6" t="n">
         <v>262147.983182303</v>
       </c>
       <c r="J6" t="n">
-        <v>135217.4548884753</v>
+        <v>135217.4548884752</v>
       </c>
       <c r="K6" t="n">
-        <v>252133.5130496857</v>
+        <v>252133.5130496855</v>
       </c>
       <c r="L6" t="n">
-        <v>167603.2024949609</v>
+        <v>167603.202494961</v>
       </c>
       <c r="M6" t="n">
-        <v>175016.8842399076</v>
+        <v>175016.8842399078</v>
       </c>
       <c r="N6" t="n">
-        <v>262147.9831823031</v>
+        <v>262147.9831823029</v>
       </c>
       <c r="O6" t="n">
         <v>226995.413416901</v>
       </c>
       <c r="P6" t="n">
-        <v>261579.6101520056</v>
+        <v>261579.6101520053</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327126</v>
@@ -26716,10 +26716,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="F3" t="n">
         <v>124.777571485054</v>
@@ -26802,16 +26802,16 @@
         <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
+        <v>380.4238384241749</v>
+      </c>
+      <c r="H4" t="n">
         <v>380.4238384241748</v>
       </c>
-      <c r="H4" t="n">
-        <v>380.4238384241749</v>
-      </c>
       <c r="I4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882896</v>
@@ -26820,10 +26820,10 @@
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504667</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766597</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641147</v>
+        <v>311.1522545641149</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.2715838600601</v>
+        <v>69.27158386006016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853624</v>
+        <v>50.95693911853618</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327127</v>
+        <v>99.26113280130605</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H12" t="n">
-        <v>25.627327176926</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>49.33459915445624</v>
+        <v>116.6552291119085</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.32062995745123</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="14">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>99.2611328013064</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="U15" t="n">
-        <v>131.7166010327126</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>15.76699017642187</v>
-      </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28509,7 +28509,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K16" t="n">
-        <v>49.33459915445771</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
         <v>131.7166010327126</v>
@@ -28518,16 +28518,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119096</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>67.32062995745123</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28643,7 +28643,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>94.80117130885999</v>
+        <v>30.13018107105754</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
         <v>220.0953094380075</v>
@@ -28785,10 +28785,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>112.5974009380558</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9837491255998</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28880,10 +28880,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.15602968011626</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>79.06977502189355</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>75.11554963990193</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
-        <v>39.66242502957502</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="V22" t="n">
         <v>237.379489226118</v>
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>90.32021124454579</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>46.6732665607833</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>237.379489226118</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29241,16 +29241,16 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>46.55130405922645</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="V25" t="n">
         <v>237.379489226118</v>
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>7.062515756853088</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.06965820291546</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
         <v>150.044060278452</v>
@@ -29454,28 +29454,28 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>15.8702558456541</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="M28" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9.169300783721368</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745123</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29597,10 +29597,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4.463521043039862</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T30" t="n">
-        <v>66.03859081153973</v>
-      </c>
-      <c r="U30" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29688,25 +29688,25 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
-        <v>150.044060278452</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>100.1942165655564</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>14.44166858541443</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M32" t="n">
-        <v>150.0440602784527</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N32" t="n">
         <v>150.044060278452</v>
@@ -29788,7 +29788,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784525</v>
       </c>
       <c r="Q32" t="n">
         <v>150.044060278452</v>
@@ -29828,7 +29828,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.82499436550927</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1320399189014</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T33" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U33" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29910,13 +29910,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29937,16 +29937,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.76229854286596</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>91.42399569050917</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="36">
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -30083,7 +30083,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>91.29828803501954</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>125.5228377043799</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I37" t="n">
         <v>148.6838485916426</v>
@@ -30189,22 +30189,22 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957508</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V37" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
-        <v>217.1732451134468</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>93.30555150475408</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>108.1738554263834</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30426,22 +30426,22 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957508</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>56.9466048176856</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,10 +30478,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700764</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>99.22820764677573</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.15602968011626</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>63.95025757208219</v>
+        <v>192.350997597769</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
         <v>220.0953094380075</v>
@@ -30675,13 +30675,13 @@
         <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658843</v>
       </c>
       <c r="W43" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="X43" t="n">
-        <v>100.7993666658844</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30715,10 +30715,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
-        <v>46.15486527700761</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,13 +30739,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>201.7688902471331</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>71.93999381056865</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,19 +30824,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="W45" t="n">
-        <v>205.7421322378343</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
-        <v>167.1761804170863</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S46" t="n">
         <v>220.0953094380075</v>
@@ -30909,7 +30909,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U46" t="n">
-        <v>100.7993666658842</v>
+        <v>100.7993666658841</v>
       </c>
       <c r="V46" t="n">
         <v>220.9000151151833</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S11" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298812</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422263</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T12" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L13" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R13" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J16" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R16" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J19" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R19" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J22" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R22" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R24" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J25" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R25" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R27" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J28" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R28" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R30" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J31" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R31" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R33" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J34" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R34" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R36" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J37" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R37" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R39" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J40" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R40" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R42" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J43" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R43" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944958</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126651</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529488</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782758</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R45" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J46" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R46" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L11" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
         <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P11" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478076</v>
+        <v>0.04212540815694521</v>
       </c>
       <c r="M12" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>10.16047399767039</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340489</v>
+        <v>54.26553851340483</v>
       </c>
       <c r="K13" t="n">
-        <v>135.589033199928</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547759</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399399</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>105.7236890594733</v>
+        <v>173.0443190169256</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.39597107526137</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35653,10 +35653,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M14" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N14" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O14" t="n">
         <v>235.2190232985557</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K15" t="n">
-        <v>139.7936311020789</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241748</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>300.6729066938563</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340481</v>
+        <v>54.26553851340478</v>
       </c>
       <c r="K16" t="n">
-        <v>53.20703132167304</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
         <v>192.7592886547758</v>
@@ -35814,16 +35814,16 @@
         <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>195.2198746191368</v>
       </c>
       <c r="O16" t="n">
         <v>188.1056909377296</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.39597107526133</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35890,10 +35890,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N17" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O17" t="n">
         <v>235.2190232985557</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>139.7936311020789</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>49.21459538438855</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N19" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36127,10 +36127,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N20" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O20" t="n">
         <v>235.2190232985557</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427568</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>194.6152709571451</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241749</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>315.1227627601127</v>
+        <v>300.6729066938563</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N22" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36364,10 +36364,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N23" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O23" t="n">
         <v>235.2190232985557</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1774108694501</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927417</v>
+        <v>180.5983813263497</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N25" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300418</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
         <v>447.482942295883</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36680,7 +36680,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N27" t="n">
         <v>417.8042963309015</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
         <v>3.610097631882837</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>19.74268801286944</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
-        <v>78.5646455072272</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238787</v>
+        <v>33.66164383610925</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K29" t="n">
         <v>317.907360533448</v>
@@ -36844,7 +36844,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36917,7 +36917,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N30" t="n">
         <v>417.8042963309015</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809412</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.5929977591442</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005152</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>175.0492355784918</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>78.5646455072272</v>
+        <v>93.00631409264165</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
@@ -37075,7 +37075,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300425</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
         <v>447.482942295883</v>
@@ -37084,13 +37084,13 @@
         <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224495003</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362602</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37154,7 +37154,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N33" t="n">
         <v>417.8042963309015</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L34" t="n">
         <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293543</v>
+        <v>156.6173175558014</v>
       </c>
       <c r="N34" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>147.8130855955262</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5364033308398</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q34" t="n">
         <v>82.72343032100075</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37312,10 +37312,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N35" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O35" t="n">
         <v>235.2190232985557</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>90.26007390636448</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241748</v>
+        <v>10.16047399767039</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N37" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37549,10 +37549,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M38" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N38" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O38" t="n">
         <v>235.2190232985557</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5606228478076</v>
+        <v>65.64974384243803</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>114.5156710484509</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
@@ -37640,7 +37640,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N40" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604389</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871769</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37786,25 +37786,25 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N41" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O41" t="n">
         <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>261.9272698178235</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
         <v>102.5406826003573</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372456</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K42" t="n">
-        <v>32.68178252265648</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309015</v>
+        <v>176.168066317716</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
@@ -37877,7 +37877,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N43" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604392</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.77980871768997</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38023,10 +38023,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N44" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
@@ -38035,13 +38035,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427579</v>
+        <v>245.9473326314089</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K45" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>218.8872083196835</v>
       </c>
       <c r="M45" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N45" t="n">
         <v>417.8042963309015</v>
@@ -38111,10 +38111,10 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>98.45795003033658</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N46" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
